--- a/biology/Zoologie/Conus_mpenjatiensis/Conus_mpenjatiensis.xlsx
+++ b/biology/Zoologie/Conus_mpenjatiensis/Conus_mpenjatiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus mpenjatiensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique à l'Afrique du Sud et se trouve au large du KwaZulu Natal.
 </t>
@@ -571,10 +587,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus mpenjatiensis a été décrite pour la première fois en 2016 par le malacologiste sud-africain Stephan G Veldsman[1] dans « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Conus (Sciteconus) mpenjatiensis (S. G. Veldsman, 2016) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus mpenjatiensis a été décrite pour la première fois en 2016 par le malacologiste sud-africain Stephan G Veldsman dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_mpenjatiensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_mpenjatiensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Sciteconus) mpenjatiensis (S. G. Veldsman, 2016) · appellation alternative
 Floraconus (Sciteconus) mpenjatiensis (S. G. Veldsman, 2016) · non accepté
 Sciteconus mpenjatiensis S. G. Veldsman, 2016 · non accepté (combinaison originale)</t>
         </is>
